--- a/CIS200_GroupProject.xlsx
+++ b/CIS200_GroupProject.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/51dc83d22ce2ad56/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="8_{AE9F86D1-B166-0145-9B58-AAF26FAC66B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{24131029-5178-4627-B71E-18543EEAFC59}"/>
+  <xr:revisionPtr revIDLastSave="146" documentId="8_{AE9F86D1-B166-0145-9B58-AAF26FAC66B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0949B1DD-1808-1A4F-A0D9-F738CA654B70}"/>
   <bookViews>
-    <workbookView xWindow="2562" yWindow="2562" windowWidth="17280" windowHeight="8994" xr2:uid="{186EC0C9-E601-6142-9558-EDBE868D2757}"/>
+    <workbookView xWindow="2560" yWindow="2560" windowWidth="17280" windowHeight="9000" xr2:uid="{186EC0C9-E601-6142-9558-EDBE868D2757}"/>
   </bookViews>
   <sheets>
     <sheet name="TO DO LIST" sheetId="1" r:id="rId1"/>
     <sheet name="TASK RECORDS" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -544,20 +544,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D23BF58-9C99-0441-A245-3A26060D7AEA}">
   <dimension ref="B2:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D21"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="31" customHeight="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="21.5" defaultRowHeight="31" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" style="1"/>
-    <col min="2" max="2" width="64.6484375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="64.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="37.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.6484375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="21.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -568,7 +568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>39</v>
       </c>
@@ -579,7 +579,7 @@
         <v>43762</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
@@ -590,7 +590,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
@@ -601,7 +601,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
@@ -612,7 +612,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>35</v>
       </c>
@@ -623,7 +623,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
@@ -634,7 +634,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
@@ -645,7 +645,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
@@ -656,7 +656,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
@@ -667,7 +667,7 @@
         <v>43781</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
@@ -678,7 +678,7 @@
         <v>43763</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
@@ -689,7 +689,7 @@
         <v>43770</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
@@ -700,7 +700,7 @@
         <v>43781</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
@@ -711,7 +711,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
@@ -722,7 +722,7 @@
         <v>43789</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
@@ -730,10 +730,10 @@
         <v>38</v>
       </c>
       <c r="D17" s="3">
-        <v>43800</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.6">
+        <v>43795</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
@@ -741,10 +741,10 @@
         <v>38</v>
       </c>
       <c r="D18" s="3">
-        <v>43804</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.6">
+        <v>43797</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
@@ -752,10 +752,10 @@
         <v>38</v>
       </c>
       <c r="D19" s="3">
-        <v>43804</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.6">
+        <v>43797</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
@@ -763,10 +763,10 @@
         <v>36</v>
       </c>
       <c r="D20" s="3">
-        <v>43804</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.6">
+        <v>43797</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
@@ -774,7 +774,7 @@
         <v>37</v>
       </c>
       <c r="D21" s="3">
-        <v>43804</v>
+        <v>43797</v>
       </c>
     </row>
   </sheetData>
@@ -791,21 +791,21 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="31" customHeight="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="21.5" defaultRowHeight="31" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" style="1"/>
-    <col min="2" max="2" width="64.6484375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="64.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="37.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.6484375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="21.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="31" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:3" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="31" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:3" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -813,49 +813,49 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="31" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:3" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="2:3" ht="31" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:3" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="2:3" ht="31" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="2:3" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="2:3" ht="31" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:3" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="2:3" ht="31" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="2:3" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="2:3" ht="31" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="2:3" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="2:3" ht="31" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="2:3" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="2:3" ht="31" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="2:3" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
